--- a/data/trans_camb/P1424_2016_2023-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1424_2016_2023-Dificultad-trans_camb.xlsx
@@ -567,7 +567,7 @@
         <v>6.724211082819469</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3.404795388219913</v>
+        <v>3.404795388219915</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>5.1231056168759</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.069595588818487</v>
+        <v>4.019047043781251</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1762981330750767</v>
+        <v>0.1626527316761064</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.038756797346048</v>
+        <v>2.954732819103322</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.08475719481144</v>
+        <v>9.831747324546885</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.645868219020115</v>
+        <v>6.446851791026227</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.476665307671603</v>
+        <v>7.150558837159614</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>2.191666986001309</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.2969165503185307</v>
+        <v>0.2969165503185309</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.6831680793987785</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>1.060888999261619</v>
+        <v>1.051929876306617</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.01346987892429352</v>
+        <v>0.004567785200398022</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3706454768858265</v>
+        <v>0.3413198202443299</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.837294644171356</v>
+        <v>4.112914090251406</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6549805243516433</v>
+        <v>0.6147952413014441</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.099641800888213</v>
+        <v>1.030401062286131</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1.494865203235752</v>
+        <v>1.494865203235751</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>4.997258516748234</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0746915692250542</v>
+        <v>0.1602120747923808</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.022759761008831</v>
+        <v>3.079708273052538</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.207782646391928</v>
+        <v>2.218311668771442</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.002394997728119</v>
+        <v>3.026531726014809</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.878216713477983</v>
+        <v>6.903036553654411</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.625153921131659</v>
+        <v>4.732551276875892</v>
       </c>
     </row>
     <row r="13">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0.8549625826577217</v>
+        <v>0.8549625826577214</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>1.243786121402381</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.02859711016446303</v>
+        <v>-0.04595908468243847</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.5947923961339665</v>
+        <v>0.5984045021875621</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.6174317254413911</v>
+        <v>0.5862911538142644</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.451940420861104</v>
+        <v>2.429115858258589</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.144827029148315</v>
+        <v>2.19547573870425</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.92101647901172</v>
+        <v>1.961848835234821</v>
       </c>
     </row>
     <row r="16">
@@ -779,7 +779,7 @@
         <v>2.269224186492572</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>4.003713326841555</v>
+        <v>4.003713326841553</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>3.17984000397265</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8997565035009755</v>
+        <v>0.8807625412889382</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.960001475954318</v>
+        <v>1.801521916698175</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.938987851596371</v>
+        <v>1.868301375995283</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.610518830882429</v>
+        <v>3.661170150166957</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.909887668142876</v>
+        <v>5.965534167886061</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.371759498901972</v>
+        <v>4.358324375739963</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.4544572177414959</v>
+        <v>0.4409219777446005</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.3753316546370709</v>
+        <v>0.3787175084759071</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6170509862743433</v>
+        <v>0.6261635544280378</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>6.416513627291199</v>
+        <v>6.372928909431026</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.26800064497274</v>
+        <v>2.27007189656658</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.417209594498992</v>
+        <v>2.527488680220213</v>
       </c>
     </row>
     <row r="22">
@@ -885,10 +885,10 @@
         <v>2.378484754175232</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>3.692536917331407</v>
+        <v>3.692536917331406</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.986620140159237</v>
+        <v>2.986620140159236</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7600638184544961</v>
+        <v>0.8771850452519714</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.529925256910176</v>
+        <v>1.278028207986326</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.470817912275652</v>
+        <v>1.649204015160248</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.017091477028139</v>
+        <v>3.9669197974247</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.943786704141836</v>
+        <v>5.615073787797131</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.395329007046609</v>
+        <v>4.334445925169337</v>
       </c>
     </row>
     <row r="25">
@@ -939,7 +939,7 @@
         <v>1.051379859601859</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.390527406265598</v>
+        <v>1.390527406265597</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.06239550653103788</v>
+        <v>0.1469782080529018</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2727839394385643</v>
+        <v>0.2274978966193108</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.422491499971242</v>
+        <v>0.4907434561348523</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>16.96575098574452</v>
+        <v>21.60588149527737</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.622274836836427</v>
+        <v>2.538196363038359</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.931381891403895</v>
+        <v>2.938721159808219</v>
       </c>
     </row>
     <row r="28">
@@ -991,10 +991,10 @@
         <v>2.310654873146891</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>2.645643818590351</v>
+        <v>2.645643818590353</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.49916287673165</v>
+        <v>2.499162876731652</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.532952253962736</v>
+        <v>1.44149946130896</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.396019428830725</v>
+        <v>1.313102277523185</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.754271933700369</v>
+        <v>1.68769409243804</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.205845522929741</v>
+        <v>3.08314306277172</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.752326189831812</v>
+        <v>3.779413001484565</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.27317013300457</v>
+        <v>3.287578737857805</v>
       </c>
     </row>
     <row r="31">
@@ -1042,10 +1042,10 @@
         <v>1.222286780910612</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.4052579474861513</v>
+        <v>0.4052579474861516</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.5862423979526042</v>
+        <v>0.5862423979526046</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.6772122382910141</v>
+        <v>0.6110997478551227</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1888200031268703</v>
+        <v>0.1794428550465494</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.372669055958473</v>
+        <v>0.3556481568702101</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.098994238912453</v>
+        <v>1.955597863416349</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6272244959937563</v>
+        <v>0.6348859148002047</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8433314523577903</v>
+        <v>0.8306675286562777</v>
       </c>
     </row>
     <row r="34">
